--- a/generator/data/generated_business_labels_map_maps.xlsx
+++ b/generator/data/generated_business_labels_map_maps.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">i_econ_stop_business</t>
   </si>
   <si>
-    <t xml:space="preserve">No, operations were always running</t>
+    <t xml:space="preserve">Never shutdown</t>
   </si>
   <si>
     <t xml:space="preserve">होइन, अपरेशनहरू सँधै चलिरहेका थिए</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">i_econ_stop_business__1</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, temporarily stopped operations</t>
+    <t xml:space="preserve">Temporarily shutdown during the pandemic</t>
   </si>
   <si>
     <t xml:space="preserve">हो, अस्थायी रूपमा सञ्चालनहरू बन्द गरियो</t>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">i_econ_stop_business__2</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, permanently stopped</t>
+    <t xml:space="preserve">Permanently shutdown during the pandemic</t>
   </si>
   <si>
     <t xml:space="preserve">हो, स्थायी रूपमा रोकियो</t>
@@ -637,7 +637,7 @@
     <t xml:space="preserve">o_do_u_know_of_gov_schemes</t>
   </si>
   <si>
-    <t xml:space="preserve">I am not aware of such government schemes.</t>
+    <t xml:space="preserve">Not aware of any government schemes</t>
   </si>
   <si>
     <t xml:space="preserve">म त्यस्ता सरकारी योजनाहरूको बारेमा सचेत छैन।</t>
@@ -649,7 +649,7 @@
     <t xml:space="preserve">o_do_u_know_of_gov_schemes__1</t>
   </si>
   <si>
-    <t xml:space="preserve">I am aware about such schemes but haven’t used any.</t>
+    <t xml:space="preserve">Aware about government schemes but haven’t used any</t>
   </si>
   <si>
     <t xml:space="preserve"> मैले कुनै सरकारी योजना प्रयोग गरेको छैन तर मलाई त्यस्ता योजनाहरूको बारेमा थाहा छ।</t>
@@ -658,7 +658,7 @@
     <t xml:space="preserve">o_do_u_know_of_gov_schemes__2</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, I have used one or more government schemes.</t>
+    <t xml:space="preserve">Have used one or more government schemes</t>
   </si>
   <si>
     <t xml:space="preserve">मैले एक वा बढी सरकारी योजनाहरू प्रयोग गरेको छु।</t>
@@ -1516,25 +1516,7 @@
     <t xml:space="preserve">o_rcvry_biggest_diffclties__2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ensuring health and safety measures for employees and </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">guests</t>
-    </r>
+    <t xml:space="preserve">Ensuring health and safety measures for employees and guests</t>
   </si>
   <si>
     <t xml:space="preserve">पाहुनाहरू र पर्यटकहरूको लागि स्वास्थ्य र सुरक्षा उपायहरू सुनिश्चित गर्ने </t>
@@ -1615,7 +1597,7 @@
     <t xml:space="preserve">o_expectd_problms_next_6_mnths__2</t>
   </si>
   <si>
-    <t xml:space="preserve">Will have difficulties in paying its taxes</t>
+    <t xml:space="preserve">Will have difficulties in paying taxes</t>
   </si>
   <si>
     <t xml:space="preserve">मेरो व्यवसायलाई यसको करहरू तिर्नमा कठिनाइ हुनेछ</t>
@@ -1624,7 +1606,7 @@
     <t xml:space="preserve">o_expectd_problms_next_6_mnths__3</t>
   </si>
   <si>
-    <t xml:space="preserve">Will have difficulties in covering its operating costs</t>
+    <t xml:space="preserve">Will have difficulties in covering operating costs</t>
   </si>
   <si>
     <t xml:space="preserve">मेरो व्यवसायलाई यसको अपरेटिंग लागतहरू कभर गर्न कठिनाइ हुनेछ</t>
@@ -1642,7 +1624,7 @@
     <t xml:space="preserve">o_expectd_problms_next_6_mnths__5</t>
   </si>
   <si>
-    <t xml:space="preserve">Will have difficulties in getting enough customers required for its survival</t>
+    <t xml:space="preserve">Will have difficulties in getting enough customers required for survival</t>
   </si>
   <si>
     <t xml:space="preserve">मेरो व्यवसायको अस्तित्वको लागि पर्याप्त ग्राहकहरू प्राप्त गर्न कठिनाइ हुनेछ</t>
@@ -1765,7 +1747,7 @@
     <t xml:space="preserve">p_hlth_hhs_measures__1</t>
   </si>
   <si>
-    <t xml:space="preserve">Trained our employees on Health, hygiene and sanitation</t>
+    <t xml:space="preserve">Trained employees on Health, hygiene and sanitation</t>
   </si>
   <si>
     <t xml:space="preserve">हाम्रा कर्मचारीहरुलाई स्वास्थ्य, सरसफाइ र स्वच्छतामा तालिम दिइयो </t>
@@ -1774,7 +1756,7 @@
     <t xml:space="preserve">p_hlth_hhs_measures__2</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintained social distancing at our business premises</t>
+    <t xml:space="preserve">Maintained social distancing at business premises</t>
   </si>
   <si>
     <t xml:space="preserve">हाम्रो व्यवसाय परिसरमा सामाजिक दुरी बनाइयो</t>
@@ -1795,7 +1777,7 @@
     <t xml:space="preserve">p_hlth_hhs_measures__9</t>
   </si>
   <si>
-    <t xml:space="preserve">We didn't employ any health and sanitation related measures</t>
+    <t xml:space="preserve">Didn't employ any health and sanitation related measures</t>
   </si>
   <si>
     <t xml:space="preserve">हामीले स्वास्थ्य र सरसफाई सम्बन्धी कुनै उपायहरू प्रयोग गरेनौं</t>
@@ -3311,7 +3293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3340,12 +3322,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3425,15 +3401,19 @@
   </sheetPr>
   <dimension ref="A1:K393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C169" activeCellId="0" sqref="C169"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J76" activeCellId="0" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="34.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/generator/data/generated_business_labels_map_maps.xlsx
+++ b/generator/data/generated_business_labels_map_maps.xlsx
@@ -595,7 +595,7 @@
     <t xml:space="preserve">n_rcvry_preferred_labor_asstnc__2</t>
   </si>
   <si>
-    <t xml:space="preserve">Prioritized provision of Covid-19 vaccination to my workers/employees</t>
+    <t xml:space="preserve">Prioritized provision of COVID-19 vaccination to my workers/employees</t>
   </si>
   <si>
     <t xml:space="preserve">कामदारहरू / कर्मचारीहरूलाई कोभिड-१९ खोपको प्राथमिकतामा प्रावधान</t>
@@ -1636,7 +1636,35 @@
     <t xml:space="preserve">n_rcvry_preferred_gov_policy</t>
   </si>
   <si>
-    <t xml:space="preserve">Establishment of an authentic source of information for Covid-related communications </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Establishment of an authentic source of information for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-related communications </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">सरकारको कोभिड-१९ सम्बन्धित संचार (उदाहरण: स्वास्थ्य सल्लाहकार, निर्देशन, आदि) को लागि जानकारीको एक प्रामाणिक स्रोतको स्थापना</t>
@@ -1687,7 +1715,35 @@
     <t xml:space="preserve">p_hlth_safety_measures</t>
   </si>
   <si>
-    <t xml:space="preserve">Implemented Covid-19 prevention measures like social distancing, use of sanitizers etc.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Implemented </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> prevention measures like social distancing, use of sanitizers etc.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">कोभिड-१९ प्रसारण र रोकथाम उपायहरूमा कामदारहरूलाई जानकारी दिने</t>
@@ -1714,7 +1770,35 @@
     <t xml:space="preserve">p_hlth_safety_measures__4</t>
   </si>
   <si>
-    <t xml:space="preserve">Providing Covid-19 insurance</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Providing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">COVID-19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> insurance</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">कोभिड-१९ बीमा प्रदान गर्ने </t>
@@ -2281,7 +2365,25 @@
     <t xml:space="preserve">i_covid_effect_business__1</t>
   </si>
   <si>
-    <t xml:space="preserve">Increased Covid-19 cases in our area</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Increased </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">COVID-19 cases in our area</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">हाम्रो क्षेत्रमा कोभिड-१९ केसहरू बढ्यो </t>
@@ -3293,7 +3395,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3322,6 +3424,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3373,13 +3481,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3401,14 +3513,14 @@
   </sheetPr>
   <dimension ref="A1:K393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J76" activeCellId="0" sqref="J76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C173" activeCellId="0" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="68.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
@@ -9338,7 +9450,7 @@
         <v>9</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>155</v>
+        <v>280</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>156</v>
@@ -9680,7 +9792,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>537</v>
       </c>
@@ -9890,7 +10002,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>554</v>
       </c>
@@ -9995,7 +10107,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>554</v>
       </c>
@@ -12652,14 +12764,14 @@
         <v>752</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>749</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C275" s="0" t="s">
+      <c r="C275" s="2" t="s">
         <v>753</v>
       </c>
       <c r="D275" s="0" t="s">
